--- a/HomeWorks/Книга1.xlsx
+++ b/HomeWorks/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\TOP_Academy\AcademyTOP\HomeWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216B842-2132-4F37-93D0-D52B58837687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817312D-C3C6-4B85-96F3-8EB29C0D5DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FB61BA1E-233C-4BB5-9759-9504E2791756}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Срок сдачи</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>SQL_PZ_05_Modul__2_1548421617 (1).pdf</t>
+  </si>
+  <si>
+    <t>JS_DZ_Modul_1_Week_1_1530785519.pdf</t>
+  </si>
+  <si>
+    <t>Закинул файлы с JS</t>
+  </si>
+  <si>
+    <t>Просрочено</t>
+  </si>
+  <si>
+    <t>В сроке</t>
   </si>
 </sst>
 </file>
@@ -498,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D488EBE-3155-440F-B228-0D043C4B7725}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,12 +521,12 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="105.42578125" customWidth="1"/>
-    <col min="5" max="5" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -541,6 +553,9 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -553,6 +568,9 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -565,6 +583,9 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -577,6 +598,9 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -589,6 +613,9 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -601,6 +628,9 @@
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,6 +643,12 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45509</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -625,6 +661,9 @@
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -637,6 +676,9 @@
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -649,6 +691,9 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -661,6 +706,9 @@
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -673,6 +721,9 @@
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,6 +736,9 @@
       <c r="C14" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -697,6 +751,9 @@
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -709,6 +766,9 @@
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,6 +781,9 @@
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -733,6 +796,9 @@
       <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -745,6 +811,9 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,7 +826,9 @@
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5"/>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
@@ -771,9 +842,25 @@
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45519</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E21" xr:uid="{A7A333C7-1BC7-4B0D-A90B-8A3C7B9FC346}">
@@ -801,8 +888,9 @@
     <hyperlink ref="C17" r:id="rId17" xr:uid="{3BA78AF3-99FE-47BD-8313-A6E9F87616FD}"/>
     <hyperlink ref="C20" r:id="rId18" xr:uid="{45AC75E0-8DC3-4D57-97C9-158F2019A535}"/>
     <hyperlink ref="C21" r:id="rId19" xr:uid="{97EFD288-1DFD-451E-B64A-268CE9B5C66F}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{F15A9BC5-EA5A-480E-9848-B3DB71172687}"/>
   </hyperlinks>
   <pageMargins left="0.49781249999999999" right="0.80510416666666662" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId20"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId21"/>
 </worksheet>
 </file>
--- a/HomeWorks/Книга1.xlsx
+++ b/HomeWorks/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\TOP_Academy\AcademyTOP\HomeWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0817312D-C3C6-4B85-96F3-8EB29C0D5DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC94745-6B92-4D17-B1D2-4DA471A47045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FB61BA1E-233C-4BB5-9759-9504E2791756}"/>
+    <workbookView xWindow="3390" yWindow="4575" windowWidth="16440" windowHeight="11175" xr2:uid="{FB61BA1E-233C-4BB5-9759-9504E2791756}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Срок сдачи</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>В сроке</t>
+  </si>
+  <si>
+    <t>Сделал 8 из 10 заданий. В девятом задании нужно разобраться как развернуть число наооборот</t>
   </si>
 </sst>
 </file>
@@ -512,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D488EBE-3155-440F-B228-0D043C4B7725}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +862,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/HomeWorks/Книга1.xlsx
+++ b/HomeWorks/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\TOP_Academy\AcademyTOP\HomeWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC94745-6B92-4D17-B1D2-4DA471A47045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48500D2C-C6DB-4BBB-919F-E5D9C641904F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="4575" windowWidth="16440" windowHeight="11175" xr2:uid="{FB61BA1E-233C-4BB5-9759-9504E2791756}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FB61BA1E-233C-4BB5-9759-9504E2791756}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Срок сдачи</t>
   </si>
@@ -120,7 +120,10 @@
     <t>В сроке</t>
   </si>
   <si>
-    <t>Сделал 8 из 10 заданий. В девятом задании нужно разобраться как развернуть число наооборот</t>
+    <t>Выполнено</t>
+  </si>
+  <si>
+    <t>JS_DZ_Modul_1_Week_1_1530785519</t>
   </si>
 </sst>
 </file>
@@ -515,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D488EBE-3155-440F-B228-0D043C4B7725}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,8 +527,8 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -863,6 +866,12 @@
       </c>
       <c r="D22" t="s">
         <v>28</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45510</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -892,8 +901,9 @@
     <hyperlink ref="C20" r:id="rId18" xr:uid="{45AC75E0-8DC3-4D57-97C9-158F2019A535}"/>
     <hyperlink ref="C21" r:id="rId19" xr:uid="{97EFD288-1DFD-451E-B64A-268CE9B5C66F}"/>
     <hyperlink ref="C22" r:id="rId20" xr:uid="{F15A9BC5-EA5A-480E-9848-B3DB71172687}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{9D5B2A8C-1C7F-4AB0-A858-4814BCE29F93}"/>
   </hyperlinks>
   <pageMargins left="0.49781249999999999" right="0.80510416666666662" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId21"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId22"/>
 </worksheet>
 </file>
--- a/HomeWorks/Книга1.xlsx
+++ b/HomeWorks/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\TOP_Academy\AcademyTOP\HomeWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48500D2C-C6DB-4BBB-919F-E5D9C641904F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0164895-27F0-4BB5-BA82-00B37A1988B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FB61BA1E-233C-4BB5-9759-9504E2791756}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>Срок сдачи</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>JS_DZ_Modul_1_Week_1_1530785519</t>
+  </si>
+  <si>
+    <t>Домашнее задание до 17.08.2024</t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
+    <t>JS_DZ_Modul_1_Week_2_1530785545</t>
   </si>
 </sst>
 </file>
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D488EBE-3155-440F-B228-0D043C4B7725}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,6 +881,37 @@
       </c>
       <c r="F22" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45521</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45521</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -902,8 +942,10 @@
     <hyperlink ref="C21" r:id="rId19" xr:uid="{97EFD288-1DFD-451E-B64A-268CE9B5C66F}"/>
     <hyperlink ref="C22" r:id="rId20" xr:uid="{F15A9BC5-EA5A-480E-9848-B3DB71172687}"/>
     <hyperlink ref="F22" r:id="rId21" xr:uid="{9D5B2A8C-1C7F-4AB0-A858-4814BCE29F93}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{16F41813-0C3F-47CC-AB40-416CF162ABEA}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{AED404F2-F5AE-4F2C-8876-22CAB080D2A9}"/>
   </hyperlinks>
   <pageMargins left="0.49781249999999999" right="0.80510416666666662" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId22"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId24"/>
 </worksheet>
 </file>